--- a/result.xlsx
+++ b/result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,23 @@
   <sheets>
     <sheet name="対局結果" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,7 +67,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,7 +443,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="4" bestFit="1" customWidth="1"/>
@@ -438,7 +454,7 @@
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
